--- a/ELM/Pohor/MereniNapajecihoZdroje/ELM_Protokol_Chaloupka.xlsx
+++ b/ELM/Pohor/MereniNapajecihoZdroje/ELM_Protokol_Chaloupka.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\ELM\Pohor\MereniNapajecihoZdroje\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\School\ELM\Pohor\MereniNapajecihoZdroje\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{67786785-626B-46A9-818E-A809FD6B195C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE580C6-047C-4619-9DDA-F0F4ABEBA30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{8A85DCE3-DB18-45CC-ADD1-5D991AAD4BD6}"/>
   </bookViews>
@@ -801,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -829,6 +829,89 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -850,9 +933,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -862,167 +969,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1040,55 +1002,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>357188</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>163711</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>161739</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{413587FB-F705-4DC9-5C29-E4A68B685567}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2187774" y="9852422"/>
-          <a:ext cx="8051602" cy="4046153"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1411,8 +1324,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C3:S32"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="AB21" sqref="AB21"/>
+    <sheetView topLeftCell="A17" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,122 +1363,122 @@
     </row>
     <row r="7" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="17"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="46"/>
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="4"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="20"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="49"/>
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="17"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="46"/>
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="20"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="49"/>
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="31"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="53"/>
       <c r="S11" s="5"/>
     </row>
     <row r="12" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="4"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="34"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
       <c r="S12" s="5"/>
     </row>
     <row r="13" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1600,20 +1513,20 @@
         <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT(1,0), ".")</f>
         <v>1.</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
     </row>
@@ -1624,20 +1537,20 @@
         <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT(2,0), ".")</f>
         <v>2.</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
     </row>
@@ -1648,20 +1561,20 @@
         <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT(3,0), ".")</f>
         <v>3.</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
     </row>
@@ -1672,20 +1585,20 @@
         <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT(4,0), ".")</f>
         <v>4.</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
     </row>
@@ -1696,18 +1609,18 @@
         <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT(5,0), ".")</f>
         <v>5.</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
     </row>
@@ -1725,27 +1638,27 @@
     </row>
     <row r="22" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="36" t="s">
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="36" t="s">
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="38"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="36"/>
       <c r="S22" s="5"/>
     </row>
     <row r="23" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1769,71 +1682,71 @@
     </row>
     <row r="24" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="36" t="s">
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="36" t="s">
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="38"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="36"/>
       <c r="S24" s="5"/>
     </row>
     <row r="25" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="4"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="44"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="39"/>
       <c r="S25" s="5"/>
     </row>
     <row r="26" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="36" t="s">
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="39" t="s">
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="38"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="36"/>
       <c r="S26" s="5"/>
     </row>
     <row r="27" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1916,12 +1829,6 @@
     <row r="32" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D24:H25"/>
-    <mergeCell ref="I24:M25"/>
-    <mergeCell ref="N24:R25"/>
-    <mergeCell ref="D26:H27"/>
-    <mergeCell ref="I26:M27"/>
-    <mergeCell ref="N26:R27"/>
     <mergeCell ref="D7:R8"/>
     <mergeCell ref="D9:R10"/>
     <mergeCell ref="D11:R12"/>
@@ -1933,6 +1840,12 @@
     <mergeCell ref="F17:Q17"/>
     <mergeCell ref="F18:Q18"/>
     <mergeCell ref="F19:Q19"/>
+    <mergeCell ref="D24:H25"/>
+    <mergeCell ref="I24:M25"/>
+    <mergeCell ref="N24:R25"/>
+    <mergeCell ref="D26:H27"/>
+    <mergeCell ref="I26:M27"/>
+    <mergeCell ref="N26:R27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1944,7 +1857,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="C3:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
       <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
@@ -1975,23 +1888,23 @@
     </row>
     <row r="5" spans="3:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
       <c r="S5" s="5"/>
     </row>
     <row r="6" spans="3:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2015,100 +1928,100 @@
     </row>
     <row r="7" spans="3:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="3:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C8" s="4"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
       <c r="S8" s="5"/>
-      <c r="AC8" s="45"/>
+      <c r="AC8" s="15"/>
     </row>
     <row r="9" spans="3:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="3:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="3:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
       <c r="S11" s="5"/>
     </row>
     <row r="12" spans="3:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2117,23 +2030,23 @@
     </row>
     <row r="13" spans="3:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
       <c r="S13" s="5"/>
     </row>
     <row r="14" spans="3:29" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2155,119 +2068,113 @@
     </row>
     <row r="15" spans="3:29" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="4"/>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="27" t="s">
+      <c r="E15" s="60"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="23" t="s">
+      <c r="H15" s="60"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="27" t="s">
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="N15" s="23"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="23" t="s">
+      <c r="N15" s="60"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="24"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="61"/>
       <c r="S15" s="5"/>
     </row>
     <row r="16" spans="3:29" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="27" t="s">
+      <c r="E16" s="60"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="27" t="s">
+      <c r="K16" s="60"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="N16" s="23"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="24"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="61"/>
       <c r="S16" s="5"/>
     </row>
     <row r="17" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="27" t="s">
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="27" t="s">
+      <c r="K17" s="60"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="N17" s="23"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="24"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="61"/>
       <c r="S17" s="5"/>
     </row>
     <row r="18" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
       <c r="S18" s="5"/>
     </row>
     <row r="19" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
       <c r="S19" s="5"/>
     </row>
     <row r="20" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2276,23 +2183,23 @@
     </row>
     <row r="21" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
       <c r="S21" s="5"/>
     </row>
     <row r="22" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2316,135 +2223,135 @@
     </row>
     <row r="23" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
       <c r="S23" s="5"/>
     </row>
     <row r="24" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
       <c r="S24" s="5"/>
     </row>
     <row r="25" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="4"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
       <c r="S25" s="5"/>
     </row>
     <row r="26" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
       <c r="S26" s="5"/>
     </row>
     <row r="27" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
       <c r="S27" s="5"/>
     </row>
     <row r="28" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
       <c r="S28" s="5"/>
     </row>
     <row r="29" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="4"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
       <c r="S29" s="5"/>
     </row>
     <row r="30" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2470,11 +2377,6 @@
     <row r="32" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="P15:R15"/>
     <mergeCell ref="D21:R21"/>
     <mergeCell ref="D23:R29"/>
     <mergeCell ref="D5:R5"/>
@@ -2490,10 +2392,14 @@
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="P16:R16"/>
     <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="P15:R15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2502,7 +2408,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="C3:S39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
       <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
@@ -2534,728 +2440,691 @@
     </row>
     <row r="5" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
       <c r="S5" s="5"/>
     </row>
     <row r="6" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
       <c r="S6" s="5"/>
     </row>
     <row r="7" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
       <c r="S11" s="5"/>
     </row>
     <row r="12" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
       <c r="S12" s="5"/>
     </row>
     <row r="13" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
       <c r="S13" s="5"/>
     </row>
     <row r="14" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
       <c r="S14" s="5"/>
     </row>
     <row r="15" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
       <c r="S15" s="5"/>
     </row>
     <row r="16" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="58"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
       <c r="S16" s="5"/>
     </row>
     <row r="17" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
+      <c r="E17" s="9"/>
       <c r="S17" s="5"/>
     </row>
     <row r="18" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
       <c r="S18" s="5"/>
     </row>
     <row r="19" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="4"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="53"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
       <c r="S19" s="5"/>
     </row>
     <row r="20" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="69">
+      <c r="E20" s="26">
         <v>0.5</v>
       </c>
-      <c r="F20" s="69">
+      <c r="F20" s="26">
         <v>1</v>
       </c>
-      <c r="G20" s="69">
+      <c r="G20" s="26">
         <v>1.5</v>
       </c>
-      <c r="H20" s="69">
+      <c r="H20" s="26">
         <v>2</v>
       </c>
-      <c r="I20" s="69">
+      <c r="I20" s="26">
         <v>2.5</v>
       </c>
-      <c r="J20" s="69">
+      <c r="J20" s="26">
         <v>3</v>
       </c>
-      <c r="K20" s="69">
+      <c r="K20" s="26">
         <v>3.5</v>
       </c>
-      <c r="L20" s="70">
+      <c r="L20" s="27">
         <v>4</v>
       </c>
-      <c r="M20" s="66"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="53"/>
+      <c r="M20" s="23"/>
       <c r="S20" s="5"/>
     </row>
     <row r="21" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
-      <c r="D21" s="61" t="s">
+      <c r="D21" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="73" t="s">
+      <c r="E21" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="79">
+      <c r="F21" s="30">
         <v>8.8800000000000008</v>
       </c>
-      <c r="G21" s="79">
+      <c r="G21" s="30">
         <v>8.6</v>
       </c>
-      <c r="H21" s="79">
+      <c r="H21" s="30">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I21" s="79">
+      <c r="I21" s="30">
         <v>8.5</v>
       </c>
-      <c r="J21" s="79">
+      <c r="J21" s="30">
         <v>8.1999999999999993</v>
       </c>
-      <c r="K21" s="79">
+      <c r="K21" s="30">
         <v>8.1999999999999993</v>
       </c>
-      <c r="L21" s="80">
+      <c r="L21" s="31">
         <v>8.1</v>
       </c>
-      <c r="M21" s="67"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
       <c r="S21" s="5"/>
     </row>
     <row r="22" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
-      <c r="D22" s="62" t="s">
+      <c r="D22" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="73" t="s">
+      <c r="E22" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="79">
+      <c r="F22" s="30">
         <v>5.5</v>
       </c>
-      <c r="G22" s="79">
+      <c r="G22" s="30">
         <v>5.2</v>
       </c>
-      <c r="H22" s="79">
+      <c r="H22" s="30">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I22" s="81">
+      <c r="I22" s="32">
         <v>5</v>
       </c>
-      <c r="J22" s="79">
+      <c r="J22" s="30">
         <v>5</v>
       </c>
-      <c r="K22" s="79">
+      <c r="K22" s="30">
         <v>4.9000000000000004</v>
       </c>
-      <c r="L22" s="80">
+      <c r="L22" s="31">
         <v>4.8</v>
       </c>
-      <c r="M22" s="68"/>
-      <c r="N22" s="71" t="s">
+      <c r="M22" s="25"/>
+      <c r="N22" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
       <c r="S22" s="5"/>
     </row>
     <row r="23" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="73" t="s">
+      <c r="E23" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="79">
+      <c r="F23" s="30">
         <v>180</v>
       </c>
-      <c r="G23" s="79">
+      <c r="G23" s="30">
         <v>180</v>
       </c>
-      <c r="H23" s="79">
+      <c r="H23" s="30">
         <v>180</v>
       </c>
-      <c r="I23" s="79">
+      <c r="I23" s="30">
         <v>180</v>
       </c>
-      <c r="J23" s="79">
+      <c r="J23" s="30">
         <v>180</v>
       </c>
-      <c r="K23" s="79">
+      <c r="K23" s="30">
         <v>180</v>
       </c>
-      <c r="L23" s="80">
+      <c r="L23" s="31">
         <v>180</v>
       </c>
-      <c r="M23" s="68"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
       <c r="S23" s="5"/>
     </row>
     <row r="24" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="4"/>
-      <c r="D24" s="64" t="s">
+      <c r="D24" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="74" t="s">
+      <c r="E24" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="82">
+      <c r="F24" s="33">
         <f>((F22*SQRT(2))/F21)*100</f>
         <v>87.592056228063313</v>
       </c>
-      <c r="G24" s="82">
+      <c r="G24" s="33">
         <f t="shared" ref="G24:L24" si="0">((G22*SQRT(2))/G21)*100</f>
         <v>85.510587492326678</v>
       </c>
-      <c r="H24" s="82">
+      <c r="H24" s="33">
         <f t="shared" si="0"/>
         <v>86.897459856660049</v>
       </c>
-      <c r="I24" s="82">
+      <c r="I24" s="33">
         <f t="shared" si="0"/>
         <v>83.189033080770301</v>
       </c>
-      <c r="J24" s="82">
+      <c r="J24" s="33">
         <f t="shared" si="0"/>
         <v>86.232534291042398</v>
       </c>
-      <c r="K24" s="82">
+      <c r="K24" s="33">
         <f t="shared" si="0"/>
         <v>84.507883605221551</v>
       </c>
-      <c r="L24" s="82">
+      <c r="L24" s="33">
         <f t="shared" si="0"/>
         <v>83.805248140627853</v>
       </c>
-      <c r="M24" s="68"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
       <c r="S24" s="5"/>
     </row>
     <row r="25" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="4"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
       <c r="S25" s="5"/>
     </row>
     <row r="26" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
-      <c r="D26" s="60" t="s">
+      <c r="D26" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="69">
+      <c r="E26" s="26">
         <v>0.5</v>
       </c>
-      <c r="F26" s="69">
+      <c r="F26" s="26">
         <v>1</v>
       </c>
-      <c r="G26" s="69">
+      <c r="G26" s="26">
         <v>1.5</v>
       </c>
-      <c r="H26" s="69">
+      <c r="H26" s="26">
         <v>2</v>
       </c>
-      <c r="I26" s="69">
+      <c r="I26" s="26">
         <v>2.5</v>
       </c>
-      <c r="J26" s="69">
+      <c r="J26" s="26">
         <v>3</v>
       </c>
-      <c r="K26" s="69">
+      <c r="K26" s="26">
         <v>3.5</v>
       </c>
-      <c r="L26" s="70">
+      <c r="L26" s="27">
         <v>4</v>
       </c>
-      <c r="M26" s="53"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
       <c r="S26" s="5"/>
     </row>
     <row r="27" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
-      <c r="D27" s="61" t="s">
+      <c r="D27" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="75" t="s">
+      <c r="E27" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="75">
+      <c r="F27" s="30">
         <v>14.5</v>
       </c>
-      <c r="G27" s="75">
+      <c r="G27" s="30">
         <v>13.8</v>
       </c>
-      <c r="H27" s="75">
+      <c r="H27" s="30">
         <v>13.2</v>
       </c>
-      <c r="I27" s="75">
+      <c r="I27" s="30">
         <v>12.6</v>
       </c>
-      <c r="J27" s="75">
+      <c r="J27" s="30">
         <v>11.9</v>
       </c>
-      <c r="K27" s="75">
+      <c r="K27" s="30">
         <v>11.2</v>
       </c>
-      <c r="L27" s="76">
+      <c r="L27" s="31">
         <v>10.8</v>
       </c>
-      <c r="M27" s="51"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
       <c r="S27" s="5"/>
     </row>
     <row r="28" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
-      <c r="D28" s="62" t="s">
+      <c r="D28" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="75" t="s">
+      <c r="E28" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="75">
+      <c r="F28" s="30">
         <v>0.75</v>
       </c>
-      <c r="G28" s="75">
+      <c r="G28" s="30">
         <v>1.02</v>
       </c>
-      <c r="H28" s="75">
+      <c r="H28" s="30">
         <v>1.32</v>
       </c>
-      <c r="I28" s="77">
+      <c r="I28" s="32">
         <v>1.5</v>
       </c>
-      <c r="J28" s="75">
+      <c r="J28" s="30">
         <v>1.68</v>
       </c>
-      <c r="K28" s="75">
+      <c r="K28" s="30">
         <v>1.86</v>
       </c>
-      <c r="L28" s="76">
+      <c r="L28" s="31">
         <v>2.04</v>
       </c>
-      <c r="M28" s="52"/>
-      <c r="N28" s="72" t="s">
+      <c r="M28" s="11"/>
+      <c r="N28" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="O28" s="72"/>
-      <c r="P28" s="72"/>
-      <c r="Q28" s="72"/>
-      <c r="R28" s="72"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="67"/>
+      <c r="R28" s="67"/>
       <c r="S28" s="5"/>
     </row>
     <row r="29" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="4"/>
-      <c r="D29" s="63" t="s">
+      <c r="D29" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="75" t="s">
+      <c r="E29" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="75">
+      <c r="F29" s="30">
         <v>90</v>
       </c>
-      <c r="G29" s="75">
+      <c r="G29" s="30">
         <v>90</v>
       </c>
-      <c r="H29" s="75">
+      <c r="H29" s="30">
         <v>93.6</v>
       </c>
-      <c r="I29" s="75">
+      <c r="I29" s="30">
         <v>99</v>
       </c>
-      <c r="J29" s="75">
+      <c r="J29" s="30">
         <v>106.2</v>
       </c>
-      <c r="K29" s="75">
+      <c r="K29" s="30">
         <v>109.8</v>
       </c>
-      <c r="L29" s="76">
+      <c r="L29" s="31">
         <v>115.2</v>
       </c>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
       <c r="S29" s="5"/>
     </row>
     <row r="30" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="4"/>
-      <c r="D30" s="64" t="s">
+      <c r="D30" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="78" t="s">
+      <c r="E30" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="78">
+      <c r="F30" s="33">
         <f>((F28*SQRT(2))/F27)*100</f>
         <v>7.3148977364125605</v>
       </c>
-      <c r="G30" s="78">
+      <c r="G30" s="33">
         <f t="shared" ref="G30:L30" si="1">((G28*SQRT(2))/G27)*100</f>
         <v>10.452882852322878</v>
       </c>
-      <c r="H30" s="78">
+      <c r="H30" s="33">
         <f t="shared" si="1"/>
         <v>14.142135623730953</v>
       </c>
-      <c r="I30" s="78">
+      <c r="I30" s="33">
         <f t="shared" si="1"/>
         <v>16.835875742536849</v>
       </c>
-      <c r="J30" s="78">
+      <c r="J30" s="33">
         <f t="shared" si="1"/>
         <v>19.965367939384869</v>
       </c>
-      <c r="K30" s="78">
+      <c r="K30" s="33">
         <f t="shared" si="1"/>
         <v>23.486046660838902</v>
       </c>
-      <c r="L30" s="78">
+      <c r="L30" s="33">
         <f t="shared" si="1"/>
         <v>26.712922844825133</v>
       </c>
-      <c r="M30" s="52"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
+      <c r="M30" s="11"/>
       <c r="S30" s="5"/>
     </row>
     <row r="31" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="4"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
       <c r="S31" s="5"/>
     </row>
     <row r="32" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="4"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
       <c r="S32" s="5"/>
     </row>
     <row r="33" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3301,8 +3170,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="C3:S32"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:R29"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3332,23 +3201,23 @@
     </row>
     <row r="5" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
       <c r="S5" s="5"/>
     </row>
     <row r="6" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3371,61 +3240,61 @@
     </row>
     <row r="7" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3449,23 +3318,23 @@
     </row>
     <row r="11" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
       <c r="S11" s="5"/>
     </row>
     <row r="12" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3474,173 +3343,173 @@
     </row>
     <row r="13" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
       <c r="S13" s="5"/>
     </row>
     <row r="14" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
       <c r="S14" s="5"/>
     </row>
     <row r="15" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
       <c r="S15" s="5"/>
     </row>
     <row r="16" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
       <c r="S16" s="5"/>
     </row>
     <row r="17" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
       <c r="S17" s="5"/>
     </row>
     <row r="18" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
       <c r="S18" s="5"/>
     </row>
     <row r="19" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
       <c r="S19" s="5"/>
     </row>
     <row r="20" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
       <c r="S20" s="5"/>
     </row>
     <row r="21" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
       <c r="S21" s="5"/>
     </row>
     <row r="22" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3649,23 +3518,23 @@
     </row>
     <row r="23" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
       <c r="S23" s="5"/>
     </row>
     <row r="24" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3689,99 +3558,99 @@
     </row>
     <row r="25" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="4"/>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
       <c r="S25" s="5"/>
     </row>
     <row r="26" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
       <c r="S26" s="5"/>
     </row>
     <row r="27" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
       <c r="S27" s="5"/>
     </row>
     <row r="28" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
       <c r="S28" s="5"/>
     </row>
     <row r="29" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="4"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
       <c r="S29" s="5"/>
     </row>
     <row r="30" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
